--- a/biology/Botanique/Maranta/Maranta.xlsx
+++ b/biology/Botanique/Maranta/Maranta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maranta est un genre des plantes monocotylédones de la famille des Marantaceae. Quelques espèces sont cultivées pour leurs grandes feuilles ou pour la cuisine, comme l'arrow-root.
 Le nom du genre rend hommage au botaniste italien Bartolomeo Maranta (vers 1500-1571).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système racinaire est superficiel.
 Les feuilles sont elliptiques, avec la pointe émoussée. Elles s'étalent durant le jour et se redressent le soir.
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 février 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 février 2012) :
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 février 2012)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (27 février 2012)
 </t>
         </is>
       </c>
